--- a/DDT_Use/logindata.xlsx
+++ b/DDT_Use/logindata.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="register" sheetId="2" r:id="rId2"/>
+    <sheet name="registerMultiple" sheetId="3" r:id="rId3"/>
+    <sheet name="quantity" sheetId="4" r:id="rId4"/>
+    <sheet name="memberdata" sheetId="5" r:id="rId5"/>
+    <sheet name="sandboxdata" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>Username</t>
   </si>
@@ -28,6 +31,204 @@
   </si>
   <si>
     <t>uttoron2025Demo!</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>uttoronDemo5!</t>
+  </si>
+  <si>
+    <t>Boudhayan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mukherjee</t>
+  </si>
+  <si>
+    <t>testuttoronuser1@yopmail.com</t>
+  </si>
+  <si>
+    <t>testuttoronuser1!!!!</t>
+  </si>
+  <si>
+    <t>Arijit</t>
+  </si>
+  <si>
+    <t>Chattopadhyay</t>
+  </si>
+  <si>
+    <t>testuttoronuser2@yopmail.com</t>
+  </si>
+  <si>
+    <t>testuttoronuser2!!!!</t>
+  </si>
+  <si>
+    <t>Magazine quantity</t>
+  </si>
+  <si>
+    <t>Membership Type</t>
+  </si>
+  <si>
+    <t>Age group</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Kid</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>CountryDropdown</t>
+  </si>
+  <si>
+    <t>PhoneType</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>CardExpiration</t>
+  </si>
+  <si>
+    <t>CVVNumber</t>
+  </si>
+  <si>
+    <t>StreetName</t>
+  </si>
+  <si>
+    <t>CityName</t>
+  </si>
+  <si>
+    <t>StateName</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>601-908-0284</t>
+  </si>
+  <si>
+    <t>02/28</t>
+  </si>
+  <si>
+    <t>Chatterjee</t>
+  </si>
+  <si>
+    <t>1809 Washington Avenue</t>
+  </si>
+  <si>
+    <t>Morrow</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Sourav</t>
+  </si>
+  <si>
+    <t>Mahipal</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Mukherjee</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Jaat</t>
+  </si>
+  <si>
+    <t>sourav123@yopmail.com</t>
+  </si>
+  <si>
+    <t>mahipal123@yopmail.com</t>
+  </si>
+  <si>
+    <t>sandy123@yopmail.com</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>11-14</t>
+  </si>
+  <si>
+    <t>45-59</t>
+  </si>
+  <si>
+    <t>60+</t>
+  </si>
+  <si>
+    <t>Billing Email</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Valid/ Invalid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>testingsite@gmail.com</t>
+  </si>
+  <si>
+    <t>abc%%uttoron</t>
+  </si>
+  <si>
+    <t>testuttoron52@yopmail.com</t>
+  </si>
+  <si>
+    <t>Permissible value</t>
+  </si>
+  <si>
+    <t>4032035320585193</t>
+  </si>
+  <si>
+    <t>Tonmoy</t>
+  </si>
+  <si>
+    <t>Sen</t>
+  </si>
+  <si>
+    <t>sen123@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -59,12 +260,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -89,6 +302,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -393,63 +632,483 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15" style="6" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="6">
+        <v>523</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="6">
+        <v>10011</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/DDT_Use/logindata.xlsx
+++ b/DDT_Use/logindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>Username</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Automation</t>
   </si>
   <si>
-    <t>uttoronDemo5!</t>
-  </si>
-  <si>
     <t>Boudhayan</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Arijit</t>
   </si>
   <si>
-    <t>Chattopadhyay</t>
-  </si>
-  <si>
     <t>testuttoronuser2@yopmail.com</t>
   </si>
   <si>
@@ -213,9 +207,6 @@
     <t>abc%%uttoron</t>
   </si>
   <si>
-    <t>testuttoron52@yopmail.com</t>
-  </si>
-  <si>
     <t>Permissible value</t>
   </si>
   <si>
@@ -229,6 +220,54 @@
   </si>
   <si>
     <t>sen123@yopmail.com</t>
+  </si>
+  <si>
+    <t>Anirup</t>
+  </si>
+  <si>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>testuttoronuser3!!!!</t>
+  </si>
+  <si>
+    <t>testuttoronuser4!!!!</t>
+  </si>
+  <si>
+    <t>testuttoronuser5!!!!</t>
+  </si>
+  <si>
+    <t>testuttoronuser6!!!!</t>
+  </si>
+  <si>
+    <t>Ayanava</t>
+  </si>
+  <si>
+    <t>De</t>
+  </si>
+  <si>
+    <t>Subrata</t>
+  </si>
+  <si>
+    <t>Koner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditi </t>
+  </si>
+  <si>
+    <t>Dhar</t>
+  </si>
+  <si>
+    <t>Tilok</t>
+  </si>
+  <si>
+    <t>Debnath</t>
+  </si>
+  <si>
+    <t>debnath8759@yopmail.com</t>
+  </si>
+  <si>
+    <t>uttoronDemo5$</t>
   </si>
 </sst>
 </file>
@@ -635,7 +674,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,18 +703,18 @@
         <v>3</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -690,10 +729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,24 +759,39 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -746,7 +800,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,63 +827,99 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -849,7 +939,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3">
         <v>2</v>
@@ -857,7 +947,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3">
         <v>7</v>
@@ -873,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -888,16 +978,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -905,70 +995,70 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1020,25 +1110,25 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -1047,16 +1137,16 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1064,40 +1154,40 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H2" s="6">
         <v>523</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="N2" s="6">
         <v>10011</v>

--- a/DDT_Use/logindata.xlsx
+++ b/DDT_Use/logindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>Username</t>
   </si>
@@ -258,16 +258,19 @@
     <t>Dhar</t>
   </si>
   <si>
-    <t>Tilok</t>
-  </si>
-  <si>
-    <t>Debnath</t>
-  </si>
-  <si>
-    <t>debnath8759@yopmail.com</t>
-  </si>
-  <si>
-    <t>uttoronDemo5$</t>
+    <t>uttoron2025Demo!%</t>
+  </si>
+  <si>
+    <t>Verify - New registered user check</t>
+  </si>
+  <si>
+    <t>Timiraio</t>
+  </si>
+  <si>
+    <t>Senoii</t>
+  </si>
+  <si>
+    <t>engupta8759@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +321,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -332,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,6 +377,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -671,17 +683,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -717,13 +729,25 @@
         <v>59</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -731,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,16 +783,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/DDT_Use/logindata.xlsx
+++ b/DDT_Use/logindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
   <si>
     <t>Username</t>
   </si>
@@ -54,18 +54,12 @@
     <t xml:space="preserve"> Mukherjee</t>
   </si>
   <si>
-    <t>testuttoronuser1@yopmail.com</t>
-  </si>
-  <si>
     <t>testuttoronuser1!!!!</t>
   </si>
   <si>
     <t>Arijit</t>
   </si>
   <si>
-    <t>testuttoronuser2@yopmail.com</t>
-  </si>
-  <si>
     <t>testuttoronuser2!!!!</t>
   </si>
   <si>
@@ -159,24 +153,9 @@
     <t>Sandy</t>
   </si>
   <si>
-    <t>Mukherjee</t>
-  </si>
-  <si>
     <t>Singh</t>
   </si>
   <si>
-    <t>Jaat</t>
-  </si>
-  <si>
-    <t>sourav123@yopmail.com</t>
-  </si>
-  <si>
-    <t>mahipal123@yopmail.com</t>
-  </si>
-  <si>
-    <t>sandy123@yopmail.com</t>
-  </si>
-  <si>
     <t>35-44</t>
   </si>
   <si>
@@ -213,15 +192,6 @@
     <t>4032035320585193</t>
   </si>
   <si>
-    <t>Tonmoy</t>
-  </si>
-  <si>
-    <t>Sen</t>
-  </si>
-  <si>
-    <t>sen123@yopmail.com</t>
-  </si>
-  <si>
     <t>Anirup</t>
   </si>
   <si>
@@ -264,13 +234,61 @@
     <t>Verify - New registered user check</t>
   </si>
   <si>
-    <t>Timiraio</t>
-  </si>
-  <si>
-    <t>Senoii</t>
-  </si>
-  <si>
-    <t>engupta8759@yopmail.com</t>
+    <t>New User data</t>
+  </si>
+  <si>
+    <t>Existing User data</t>
+  </si>
+  <si>
+    <t>boudhayanuttoronuser1@yopmail.com</t>
+  </si>
+  <si>
+    <t>arijituttoronuser2@yopmail.com</t>
+  </si>
+  <si>
+    <t>aniruputtoronuser3@yopmail.com</t>
+  </si>
+  <si>
+    <t>ayanavauttoronuser4@yopmail.com</t>
+  </si>
+  <si>
+    <t>subratauttoronuser5@yopmail.com</t>
+  </si>
+  <si>
+    <t>aditiuttoronuser6@yopmail.com</t>
+  </si>
+  <si>
+    <t>roy1235@yopmail.com</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Amitava</t>
+  </si>
+  <si>
+    <t>Debnath</t>
+  </si>
+  <si>
+    <t>debnath8759au@yopmail.com</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Jadav</t>
+  </si>
+  <si>
+    <t>Sengupta</t>
+  </si>
+  <si>
+    <t>sourav1234@yopmail.com</t>
+  </si>
+  <si>
+    <t>mahipal1234@yopmail.com</t>
+  </si>
+  <si>
+    <t>sandy1234@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -302,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +345,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -341,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,6 +404,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -685,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,18 +742,18 @@
         <v>3</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -734,10 +761,10 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -753,10 +780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,9 +792,10 @@
     <col min="2" max="2" width="23.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
@@ -792,10 +820,13 @@
         <v>83</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -807,6 +838,9 @@
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -824,14 +858,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -857,80 +891,80 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -952,7 +986,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +997,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3">
         <v>2</v>
@@ -971,7 +1005,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3">
         <v>7</v>
@@ -987,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,21 +1031,21 @@
     <col min="2" max="2" width="18.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -1019,70 +1053,70 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1134,25 +1168,25 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -1161,16 +1195,16 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1178,40 +1212,40 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H2" s="6">
         <v>523</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="N2" s="6">
         <v>10011</v>

--- a/DDT_Use/logindata.xlsx
+++ b/DDT_Use/logindata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>Username</t>
   </si>
@@ -231,9 +231,6 @@
     <t>uttoron2025Demo!%</t>
   </si>
   <si>
-    <t>Verify - New registered user check</t>
-  </si>
-  <si>
     <t>New User data</t>
   </si>
   <si>
@@ -258,24 +255,9 @@
     <t>aditiuttoronuser6@yopmail.com</t>
   </si>
   <si>
-    <t>roy1235@yopmail.com</t>
-  </si>
-  <si>
-    <t>Ray</t>
-  </si>
-  <si>
     <t>Amitava</t>
   </si>
   <si>
-    <t>Debnath</t>
-  </si>
-  <si>
-    <t>debnath8759au@yopmail.com</t>
-  </si>
-  <si>
-    <t>Arun</t>
-  </si>
-  <si>
     <t>Jadav</t>
   </si>
   <si>
@@ -289,6 +271,15 @@
   </si>
   <si>
     <t>sandy1234@yopmail.com</t>
+  </si>
+  <si>
+    <t>Bikash</t>
+  </si>
+  <si>
+    <t>das8759au@yopmail.com</t>
+  </si>
+  <si>
+    <t>sen12358@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -320,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,12 +327,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,10 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -710,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,25 +738,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -811,19 +781,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>71</v>
+      <c r="E2" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -839,8 +809,8 @@
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>72</v>
+      <c r="E3" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -905,7 +875,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -919,7 +889,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>59</v>
@@ -933,7 +903,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>60</v>
@@ -947,7 +917,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>61</v>
@@ -961,7 +931,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>62</v>
@@ -1022,7 +992,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,16 +1029,16 @@
         <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -1079,13 +1049,13 @@
         <v>41</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1096,13 +1066,13 @@
         <v>42</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1116,7 +1086,7 @@
         <v>44</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
